--- a/adf.table.xlsx
+++ b/adf.table.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edgarsigfridosotoaparicio/Documents/GitHub/Market-Index-Portafolios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23FA54-D009-3D43-943E-992690CF0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A0BDDE-F621-3943-9109-8BE6D95A0FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{BA79B63B-2C6D-9548-974A-5554F9EF0E85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BA79B63B-2C6D-9548-974A-5554F9EF0E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Italy</t>
   </si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>p-value</t>
+  </si>
+  <si>
+    <t>ks</t>
   </si>
 </sst>
 </file>
@@ -453,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D87764-7215-B54A-A4E7-68809733A398}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBC48B9-756A-1A40-97E7-02F3730DDD35}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -877,4 +881,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F010C19-DCBE-D04D-8587-B94F10901E9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>